--- a/biology/Botanique/Icacinales/Icacinales.xlsx
+++ b/biology/Botanique/Icacinales/Icacinales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Icacinacées est une famille de plantes dicotylédones comprenant 160 espèces réparties en 23 genres.[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Icacinacées est une famille de plantes dicotylédones comprenant 160 espèces réparties en 23 genres.
 Ce sont des arbres, des arbustes ou des lianes, des milieux humides ou non, des régions subtropicales à tropicales. 
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Icacina donné en raison de sa ressemblance végétative avec l’espèce Chrysobalanus icaco (Chrysobalanaceae)[2].
-Icaco est à son tour dérivé de ikaku, le nom des amérindiens arawak de cette espèce du genre Chrysobalanus[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Icacina donné en raison de sa ressemblance végétative avec l’espèce Chrysobalanus icaco (Chrysobalanaceae).
+Icaco est à son tour dérivé de ikaku, le nom des amérindiens arawak de cette espèce du genre Chrysobalanus,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractères morphologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Icacinacées sont caractérisés par une combinaison de caractères.
 </t>
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique situe cette famille à la base des Lamiidées au sein des Icacinales Les Icacinaceae sont groupes frères des Oncothecaceae [1] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique situe cette famille à la base des Lamiidées au sein des Icacinales Les Icacinaceae sont groupes frères des Oncothecaceae  .
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Registre fossile</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille est connue dans le registre fossile au cours du Cénozoïque notamment sous forme de fruits et graines fossiles [5]. En particulier, la famille était répandue en Amérique du Nord et en Europe durant le Paléogène ou elle à complétement disparue de nos jours.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille est connue dans le registre fossile au cours du Cénozoïque notamment sous forme de fruits et graines fossiles . En particulier, la famille était répandue en Amérique du Nord et en Europe durant le Paléogène ou elle à complétement disparue de nos jours.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (2 Jul 2010)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (2 Jul 2010) :
 Alsodeiopsis
 Apodytes (en)
 Cassinopsis (en)
@@ -663,7 +685,7 @@
 Raphiostylis
 Sarcostigma (en)
 Stachyanthus
-Selon Angiosperm Phylogeny Website                        (2 Jul 2010)[7] :
+Selon Angiosperm Phylogeny Website                        (2 Jul 2010) :
 Alsodeiopsis Oliv.
 Apodytes E.Mey. ex Arn.
 Calatola (en) Standl.
@@ -698,7 +720,7 @@
 Rhyticaryum (es) Becc.
 Sarcostigma Wight &amp; Arn.
 Stachyanthus Engl.
-Selon DELTA Angio           (2 Jul 2010)[8] :
+Selon DELTA Angio           (2 Jul 2010) :
 Alsodeiopsis
 Apodytes
 Calatola
@@ -749,13 +771,13 @@
 Stachyanthus
 Stemonurus
 Whitmorea
-Selon ITIS      (2 Jul 2010)[9] :
+Selon ITIS      (2 Jul 2010) :
 Icacina Adr. Juss.
 Mappia Jacq.
 Merrilliodendron Kanehira
 Ottoschulzia Urban
 Stemonurus Blume
-Selon Stull et al. 2015 [1]
+Selon Stull et al. 2015 
 Alsodeiopsis
 Casimirella
 Cassinopsis
